--- a/questionsJochen.xlsx
+++ b/questionsJochen.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jochen\MAI_NLP_PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schmi\MAI_NLP_PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB50067A-11F4-4197-A67A-CB2D08C8C412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978C8A8B-06E0-4E8A-BC30-C0D5BE216157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="186">
   <si>
     <t>Question</t>
   </si>
@@ -108,62 +119,6 @@
     <t>How many times should the machine be run with plain water after decalcifying?</t>
   </si>
   <si>
-    <t>SAFETY ADVICE
-This appliance is not intended for use by persons (including children) with 
-reduced physical, sensory or mental capabilities, or lack of experience and 
-knowledge, unless they have been given supervision or instruction concerning 
-use of the appliance by a person responsible for their safety. 
-Children should be supervised to ensure that they do not play with the appliance.
-This appliance can be used by children aged from 8 years and above and persons 
-with reduced physical, sensory or mental capabilities or lack of experience and 
-knowledge if they have been given supervision or instruction concerning use of 
-the appliance in a safe way and understand the hazards involved. Children shall 
-not play with the appliance. 
-Cleaning and user maintenance shall not be made by children without supervision.
-CLEANING AND CARE
-Switch the machine off and unplug the power cord. Wipe all outer surfaces 
-with a damp cloth.
-Coffee jug (F) and jug lid are dishwasher proof. Never use caustic or abrasive 
-cleaners, and never immerse the machine in liquid!
-To clean the filter holder (E), lift up the handle and remove the filter holder. 
-To clean the filter valve thoroughly, rotate it several times while it is being rinsed.
-Decalcifying is recommended regularly, depending on water hardness. Fill the 
-tank with water and decalcifier according to product instructions, then follow 
-steps 9 and 10.
-Place the coffee jug (F) with its lid onto the warming plate (G). Allow the 
-decalcifier to take effect for about 15 minutes, then switch the machine on. 
-Switch it off when the solution has finished flowing through. If necessary repeat 
-the decalcifying process.
-Allow the machine to run at least twice with plain water. Then thoroughly rinse 
-the coffee jug (F), jug lid and filter holder (E) under running water, activate the 
-filter valve repeatedly during the rinse process.
-The appliance may only be connected to a power supply whose voltage and 
-frequency comply with the specifications on the rating plate! Never use or pick up 
-the appliance if – the supply cord is damaged, – the housing is damaged. 
-The appliance must only be connected to an earthed socket.
-If necessary an extension cable suitable for 10 A can be used. If the appliance or 
-the supply cord is damaged, it must be replaced by the manufacturer, its service 
-agent or similarly qualified person, in order to avoid hazard.
-Always place the appliance on a flat, level surface.
-Never leave the appliance unattended while connected to the supply mains.
-The appliance must be switched off and the mains plug withdrawn each time after 
-use, before cleaning and maintenance.
-The appliance and accessories become hot during operation. Use only designated 
-handles and knobs. Allow to cool down before or storage. The mains cable must 
-not come into contact with any hot parts of the appliance.
-Do not immerse the appliance in water or any other liquid. Do not exceed the 
-maximum filling volume as indicated on the appliances. Do not use or place the 
-appliance on a hot surface or near source of heat.
-This appliance is intended to be used in household and similar applications such as:
-– staff kitchen areas in shops, offices and other working environments;
-– farm houses;
-– by clients in hotels, motels and other residential type environments;
-– bed and breakfast type environments.
-The coffee maker shall not be placed in a cabinet when in use.
-No action is needed to adapt the product to 50 or 60Hz.
-The product will adjust itself.</t>
-  </si>
-  <si>
     <t>Who should not use the appliance without supervision or instruction?</t>
   </si>
   <si>
@@ -252,9 +207,6 @@
   </si>
   <si>
     <t>What should be done with the coffee jug after the first brew is finished?</t>
-  </si>
-  <si>
-    <t>Handling and Operation Setting the time As soon as the appliance is plugged into a socket, the display lighting turns on and the time display 12:00 flashes. The clock has a 24-hour time format. Set the hours by long pressing; For both hours &amp; minutes. 1. Keep the button pressed to set the hours (21). 2. Keep the button pressed to set the minutes (22). The time is saved until a new time is set or the device has been disconnected from the power supply. Filling the water tank 1. Open the water tank lid (9). 2. Pour the quantity of water required for the number of cups you want (maximum 10 cups) into the water tank (11). 3. Close the water tank lid. Adding coffee beans 1. Take off the lid of the coffee bean compartment (1). Ensure that the water tank is closed so that no coffee beans can fall into the water tank. 2. Fill the coffee bean compartment (2) with coffee beans. Do not overfill. 3. Place the lid back on the coffee bean compartment. Setting the Grinding Fineness Move the dial for the grinding fineness (8) to the position you want fine/medium/coarse. When you switch to another grinding strength, there will still be coffee powder with the previous grinding strength in the grinder shaft. The grinder shaft may need to be cleaned beforehand. (see chapter Cleaning the Grinder Shaft) Inserting the Filter 1. Open the filter compartment (5). 2. Insert a paper filter into the filter compartment (5a). Close the filter compartment. It must engage. Setting the Number of Cups Keep pressing the button until the display (7) shows the number of cups you want (12). The selected number of cups is saved until a new number of cups is set or the device has been disconnected from the power supply. All of the water in the water tank is always used up, regardless of the set number of cups or coffee strength. Setting the Coffee Strength The coffee strength can be set when making coffee with coffee beans. To do this, keep pressing the button (24) until the coffee strength (13) you want is shown on the display. - Mild coffee - Medium coffee - Strong coffee The selected coffee strength is saved until a new coffee strength is set or the device has been disconnected from the power supply. Keep-Warm Function The device has an automatic keep-warm function. The hotplate remains switched on for 40 minutes after each brewing process. After the brewing process the keep warm icon (17a) in the display will be lit. To end the keep-warm function prematurely, press the button (26) to cancel. Drip Stop The device has a drip stop which prevents coffee from dripping out of the filter when the jug has been removed from the device. When the device is in operation, the filter compartment (5) must be closed and the jug with lid placed must be placed beneath the filter compartment. During the brewing process, the jug must not be removed from the device for longer than 30 seconds as otherwise the filter could overflow. Preparation Making coffee with coffee beans 1. Fill the water tank. 2. Fill the coffee bean compartment. 3. Set the grinding fineness you want. 4. Open the filter compartment and insert a paper filter. Close the filter compartment. 5. Set the desired number of cups by pressing . 6. Set the desired coffee strength with the button . 7. Press the button (18) to switch on the grinder and start the brewing process.</t>
   </si>
   <si>
     <t>How do you set the time on the device?</t>
@@ -339,9 +291,6 @@
 • Before you start prepar_x0002_ing coffee a second time, always allow the coffee_x0002_maker to cool down for approx. 5 minutes (switch off the appli_x0002_ance), otherwise steam can develop when filling with cold water.
 • Braun electric appliances meet applicable safety standards. Repairs or the replacement of the mains cord must only be doneby authorised service personnel. Faulty, unqualified repair work may cause considerable hazards to the user. • Always use cold water to make coffee.
 • Before using the coffee_x0002_maker for the first time or after a longer time of not using it, operate the appliance with the maximum amount of cold water without filling the filter with ground coffee.</t>
-  </si>
-  <si>
-    <t>Making coffee Fill in fresh water, insert a No. 4 paper filter, fill in ground coffee, put the carafe on the hotplate and switch on the appliance. Brewing time per cup: approx. 1 minute. Cleaning Always unplug the appliance before cleaning. Never clean the appliance under running water, nor immerse it in water; only clean it with a damp cloth. All removable parts can be cleaned in a dishwasher. Decalcifying (without illustrations) If you use the coff eemaker with hard water, it has to be decalcifi ed regularly. If your coff eemaker takes much longer than normal to brew, this shows that you should decalcify the appliance. • You can use a commercially available decalcifying agent which does not aff ect aluminium. • Follow the instructions of the manufacturer of the decalcifying agent. • Repeat the procedure as many times as necessary in order to reduce the brewing time per cup to a normal level. • Allow the maximum amount of fresh cold water to run through at least twice to cleanse the coff ee-maker. Subject to change without notice. Please do not dispose of the product in the household waste at the end of its useful life. Disposal can take place at a Braun Service Centre or at appropriate collection points provided in your country</t>
   </si>
   <si>
     <t>Can this appliance be used by people with reduced physical, sensory, or mental capabilities?</t>
@@ -636,6 +585,692 @@
   </si>
   <si>
     <t>How should the inside of the water reservoir be dried after cleaning?</t>
+  </si>
+  <si>
+    <t>2. SAFETY WARNINGS
+Danger! Failure to observe the warning may result in life 
+threatening injury by electric shock.
+This is an electrical appliance and may cause electrical shocks.
+You should therefore follow these safety warnings:
+• Never touch the appliance with damp hands or feet.
+• Never touch the plug with damp hands.
+• Make sure the socket used is freely accessible at all times, 
+enabling the appliance to be unplugged when necessary. 
+• Unplug directly from the plug only. Never pull the cord as 
+you could damage it.
+• To disconnect the appliance completely you must unplug it 
+from the mains socket.
+• If the appliance is faulty, do not attempt to repair. 
+Turn it off, unplug from the mains socket and contact Cus_x0002_tomer Services. 
+• Before cleaning the appliance, turn it off, unplug from the 
+mains socket and allow to cool.
+ Important: Failure to observe the warning could result in 
+injury or damage to the appliance.
+Keep all packaging (plastic bags, polystyrene foam) away from 
+children.
+ Danger of burns! Failure to observe the warning could 
+result in scalds or burns.
+This appliance produces hot water and steam may form while 
+it is in operation. 
+Avoid contact with splashes of water or hot steam.
+2.1 Designated use and restrictions 
+This appliance is designed and made to prepare coffee or hot 
+water and to heat milk using steam.
+Use drinking water only to fill the tank as described in the In_x0002_struction for Use. 
+Never use the hot water/steam spout (A12) with beverages 
+other than milk. 
+Any other use is considered improper and thus dangerous. The 
+manufacturer is not liable for damage deriving from improper 
+use of the appliance.
+2.2 Instruction for Use
+Read this Instruction for Use carefully before using the appli_x0002_ance. Failure to follow this Instruction for Use may result in 
+burns or damage to the appliance. 
+The manufacturer is not liable for damage deriving from failure 
+to respect this Instruction for Use.
+ Please note: 
+Keep this Instruction for Use. If the appliance is passed to other 
+persons, they must also be provided with this Instruction for 
+Use.
+2.3 Checking the appliance
+After removing the packaging, make sure the product is com_x0002_plete and undamaged and that all accessories are present. Do 
+not use the appliance if it is visibly damaged. Contact De’Longhi 
+Customer Services. 
+3. DISPOSING OF THE APPLIANCE
+The appliance must not be disposed of with house_x0002_hold waste, but taken to an authorised waste separa_x0002_tion and recycling centre.
+4. TECHNICAL DATA
+Mains voltage: ........................................220-240V~50/60Hz
+Absorbed power:.........................................................1350 W
+Pressure: .......................................................................15 bar
+Water tank capacity: ............................................................1 l
+Size LxHxD..........................................149x305x330 (414)mm
+Weight.........................................................................4.04 kg
+This appliance conforms to EC Regulation 1935/2004 
+on materials and articles intended to come into con_x0002_tact with food.
+None of the components or accessories is dish_x0002_washer safe.</t>
+  </si>
+  <si>
+    <t>Delonghi\ec685bk_dedica_siebträger\ec685bk_dedica_siebträger_ec685bk_instruction_manuals_english.pdf</t>
+  </si>
+  <si>
+    <t>What is the voltage ran for this appliance?</t>
+  </si>
+  <si>
+    <t>How much power does the appliance use?</t>
+  </si>
+  <si>
+    <t>What is the pressure of the appliance?</t>
+  </si>
+  <si>
+    <t>What is the capacity of the water tank?</t>
+  </si>
+  <si>
+    <t>What are the dimensions and weight of the appliance?</t>
+  </si>
+  <si>
+    <t>Can the components or accessories be washed in a dishwasher?</t>
+  </si>
+  <si>
+    <t>What should be done if the appliance is visibly damaged?</t>
+  </si>
+  <si>
+    <t>How should the appliance be disposed of at the end of its useful life?</t>
+  </si>
+  <si>
+    <t>What is the purpose of the hot water/steam spout on the appliance?</t>
+  </si>
+  <si>
+    <t>What should be done if the appliance is not functioning properly?</t>
+  </si>
+  <si>
+    <t>6. INSTALLING THE APPLIANCE
+ Important!
+When you install the appliance, you should respect the follow_x0002_ing safety warnings:
+• Water penetrating the coffee maker could cause damage. 
+Do not place the appliance near taps or sinks.
+• The appliance could be damaged if the water it contains 
+freezes. 
+Do not install the appliance in a room where the tempera_x0002_ture could drop below freezing point.
+• Arrange the cord in such a way that it cannot be damaged 
+by sharp edges or contact with hot surfaces (e.g. electric 
+hot plates).
+• The appliance gives off heat. After positioning the appli_x0002_ance on the worktop, leave a space of at least 3 cm be_x0002_tween the surfaces of the appliance and the side and rear 
+walls and at least 15 cm above the machine.
+• Clean all the removable parts with tap water.
+6.1 Connecting the appliance
+Danger!
+Check that the mains power supply voltage corresponds to that 
+indicated on the rating plate on the bottom of the appliance.
+Connect the appliance to an efficiently earthed and correctly 
+installed socket with a minimum current rating of 10A only. If 
+the power socket does not match the plug on the appliance, 
+have the socket replaced with a suitable type by a qualified 
+professional.
+7. FILLING THE WATER TANK
+Please note:
+Before first use, wash all the accessories and water tank with 
+warm water.
+1. Extract the tank by pulling it upwards (fig. 1). 
+2. Open the lid and fill the tank with fresh clean water, taking 
+care not to exceed the MAX level (fig. 2). Put the tank back 
+in the appliance, pressing lightly to open the valves located 
+on the bottom of the tank.
+3. More simply, the tank can also be filled without removing 
+it, pouring the water directly from a jug.
+Important: 
+Never operate the appliance without water in the tank or with_x0002_out the tank.
+Please note: 
+It is normal for there to be water in the space under the tank. 
+This should therefore be dried regularly with a clean sponge</t>
+  </si>
+  <si>
+    <t>What is the minimum current rating required for the socket that the appliance should be plugged into?</t>
+  </si>
+  <si>
+    <t>How should the cord of the appliance be arranged to prevent damage?</t>
+  </si>
+  <si>
+    <t>What is the maximum level that the water tank should be filled to?</t>
+  </si>
+  <si>
+    <t>Is it normal for there to be water in the space under the water tank?</t>
+  </si>
+  <si>
+    <t>How should the removable parts of the appliance be cleaned before first use?</t>
+  </si>
+  <si>
+    <t>What should be done if the mains power supply voltage does not match the voltage indicated on the rating plate of the appliance?</t>
+  </si>
+  <si>
+    <t>Is it safe to operate the appliance without water in the tank or without the tank itself?</t>
+  </si>
+  <si>
+    <t>How do you access the settings menu on the coffee maker?</t>
+  </si>
+  <si>
+    <t>How do you exit the settings menu on the coffee maker?</t>
+  </si>
+  <si>
+    <t>How do you make one espresso coffee using pre-ground coffee?</t>
+  </si>
+  <si>
+    <t>What should you do to make hotter espresso coffee?</t>
+  </si>
+  <si>
+    <t>How do you prepare espresso coffee using pods?</t>
+  </si>
+  <si>
+    <t>How do you program the quantities of coffee in the cup?</t>
+  </si>
+  <si>
+    <t>How do you make espresso coffee using the steam function?</t>
+  </si>
+  <si>
+    <t>How do you make a long coffee using pre-ground coffee?</t>
+  </si>
+  <si>
+    <t>How do you make a long coffee using pods?</t>
+  </si>
+  <si>
+    <t>How do you make a cappuccino using the steam function?</t>
+  </si>
+  <si>
+    <t>How do you make a latte macchiato using the steam function?</t>
+  </si>
+  <si>
+    <t>How do you make a hot water for tea using the hot water function?</t>
+  </si>
+  <si>
+    <t>What should you do to avoid splashes when removing the filter holder?</t>
+  </si>
+  <si>
+    <t>How do you adjust the temperature of the water used to make coffee?</t>
+  </si>
+  <si>
+    <t>How do you reset the default values in the settings menu?</t>
+  </si>
+  <si>
+    <t>How do you clean the outside of the appliance?</t>
+  </si>
+  <si>
+    <t>How do you clean the cappuccino maker after use?</t>
+  </si>
+  <si>
+    <t>What should you do if the water in the drip tray reaches the level indicator?</t>
+  </si>
+  <si>
+    <t>How do you clean the coffee filters?</t>
+  </si>
+  <si>
+    <t>How do you clean the boiler outlet?</t>
+  </si>
+  <si>
+    <t>How do you descale the coffee maker?</t>
+  </si>
+  <si>
+    <t>How do you clean the water tank?</t>
+  </si>
+  <si>
+    <t>How do you clean the steam nozzle?</t>
+  </si>
+  <si>
+    <t>How do you clean the hot water spout?</t>
+  </si>
+  <si>
+    <t>How do you clean the inside of the appliance?</t>
+  </si>
+  <si>
+    <t>How do you store the appliance?</t>
+  </si>
+  <si>
+    <t>SAFETY ADVICE
+This appliance is not intended for use by persons (including children) with 
+reduced physical, sensory or mental capabilities, or lack of experience and 
+knowledge, unless they have been given supervision or instruction concerning 
+use of the appliance by a person responsible for their safety. 
+Children should be supervised to ensure that they do not play with the appliance.
+This appliance can be used by children aged from 8 years and above and persons 
+with reduced physical, sensory or mental capabilities or lack of experience and 
+knowledge if they have been given supervision or instruction concerning use of 
+the appliance in a safe way and understand the hazards involved. Children shall 
+not play with the appliance. 
+Cleaning and user maintenance shall not be made by children without supervision.
+CLEANING AND CARE
+Switch the machine off and unplug the power cord. Wipe all outer surfaces 
+with a damp cloth.
+Coffee jug (F) and jug lid are dishwasher proof. Never use caustic or abrasive 
+cleaners, and never immerse the machine in liquid!
+To clean the filter holder (E), lift up the handle and remove the filter holder. 
+To clean the filter valve thoroughly, rotate it several times while it is being rinsed.
+Decalcifying is recommended regularly, depending on water hardness. Fill the 
+tank with water and decalcifier according to product instructions, then follow 
+steps 9 and 10.
+Place the coffee jug (F) with its lid onto the warming plate (G). Allow the 
+decalcifier to take effect for about 15 minutes, then switch the machine on. 
+Switch it off when the solution has finished flowing through. If necessary repeat 
+the decalcifying process.
+Allow the machine to run at least twice with plain water. Then thoroughly rinse 
+the coffee jug (F), jug lid and filter holder (E) under running water, activate the 
+filter valve repeatedly during the rinse process.
+The appliance may only be connected to a power supply whose voltage and 
+frequency comply with the specifications on the rating plate! Never use or pick up 
+the appliance if – the supply cord is damaged, – the housing is damaged. 
+The appliance must only be connected to an earthed socket.
+If necessary an extension cable suitable for 10 A can be used. If the appliance or 
+the supply cord is damaged, it must be replaced by the manufacturer, its service 
+agent or similarly qualified person, in order to avoid hazard.
+Always place the appliance on a flat, level surface.
+Never leave the appliance unattended while connected to the supply mains.
+The appliance must be switched off and the mains plug withdrawn each time after 
+use, before cleaning and maintenance.
+The appliance and accessories become hot during operation. Use only designated 
+handles and knobs. Allow to cool down before or storage. The mains cable must 
+not come into contact with any hot parts of the appliance.
+Do not immerse the appliance in water or any other liquid. Do not exceed the 
+maximum filling volume as indicated on the appliances. Do not use or place the 
+appliance on a hot surface or near source of heat.
+This appliance is intended to be used in household and similar applications such as:
+– staff kitchen areas in shops, offices and other working environments,
+– farm houses,
+– by clients in hotels, motels and other residential type environments,
+– bed and breakfast type environments.
+The coffee maker shall not be placed in a cabinet when in use.
+No action is needed to adapt the product to 50 or 60Hz.
+The product will adjust itself.</t>
+  </si>
+  <si>
+    <t>Handling and Operation Setting the time As soon as the appliance is plugged into a socket, the display lighting turns on and the time display 12:00 flashes. The clock has a 24-hour time format. Set the hours by long pressing, For both hours &amp; minutes. 1. Keep the button pressed to set the hours (21). 2. Keep the button pressed to set the minutes (22). The time is saved until a new time is set or the device has been disconnected from the power supply. Filling the water tank 1. Open the water tank lid (9). 2. Pour the quantity of water required for the number of cups you want (maximum 10 cups) into the water tank (11). 3. Close the water tank lid. Adding coffee beans 1. Take off the lid of the coffee bean compartment (1). Ensure that the water tank is closed so that no coffee beans can fall into the water tank. 2. Fill the coffee bean compartment (2) with coffee beans. Do not overfill. 3. Place the lid back on the coffee bean compartment. Setting the Grinding Fineness Move the dial for the grinding fineness (8) to the position you want fine/medium/coarse. When you switch to another grinding strength, there will still be coffee powder with the previous grinding strength in the grinder shaft. The grinder shaft may need to be cleaned beforehand. (see chapter Cleaning the Grinder Shaft) Inserting the Filter 1. Open the filter compartment (5). 2. Insert a paper filter into the filter compartment (5a). Close the filter compartment. It must engage. Setting the Number of Cups Keep pressing the button until the display (7) shows the number of cups you want (12). The selected number of cups is saved until a new number of cups is set or the device has been disconnected from the power supply. All of the water in the water tank is always used up, regardless of the set number of cups or coffee strength. Setting the Coffee Strength The coffee strength can be set when making coffee with coffee beans. To do this, keep pressing the button (24) until the coffee strength (13) you want is shown on the display. - Mild coffee - Medium coffee - Strong coffee The selected coffee strength is saved until a new coffee strength is set or the device has been disconnected from the power supply. Keep-Warm Function The device has an automatic keep-warm function. The hotplate remains switched on for 40 minutes after each brewing process. After the brewing process the keep warm icon (17a) in the display will be lit. To end the keep-warm function prematurely, press the button (26) to cancel. Drip Stop The device has a drip stop which prevents coffee from dripping out of the filter when the jug has been removed from the device. When the device is in operation, the filter compartment (5) must be closed and the jug with lid placed must be placed beneath the filter compartment. During the brewing process, the jug must not be removed from the device for longer than 30 seconds as otherwise the filter could overflow. Preparation Making coffee with coffee beans 1. Fill the water tank. 2. Fill the coffee bean compartment. 3. Set the grinding fineness you want. 4. Open the filter compartment and insert a paper filter. Close the filter compartment. 5. Set the desired number of cups by pressing . 6. Set the desired coffee strength with the button . 7. Press the button (18) to switch on the grinder and start the brewing process.</t>
+  </si>
+  <si>
+    <t>Making coffee Fill in fresh water, insert a No. 4 paper filter, fill in ground coffee, put the carafe on the hotplate and switch on the appliance. Brewing time per cup: approx. 1 minute. Cleaning Always unplug the appliance before cleaning. Never clean the appliance under running water, nor immerse it in water, only clean it with a damp cloth. All removable parts can be cleaned in a dishwasher. Decalcifying (without illustrations) If you use the coff eemaker with hard water, it has to be decalcifi ed regularly. If your coff eemaker takes much longer than normal to brew, this shows that you should decalcify the appliance. • You can use a commercially available decalcifying agent which does not aff ect aluminium. • Follow the instructions of the manufacturer of the decalcifying agent. • Repeat the procedure as many times as necessary in order to reduce the brewing time per cup to a normal level. • Allow the maximum amount of fresh cold water to run through at least twice to cleanse the coff ee-maker. Subject to change without notice. Please do not dispose of the product in the household waste at the end of its useful life. Disposal can take place at a Braun Service Centre or at appropriate collection points provided in your country</t>
+  </si>
+  <si>
+    <t>8. FIRST USE
+At first use, rince the internal circuit as follows:
+1. Turn the appliance on by pressing the ON/OFF switch (fig. 
+3). The appliance performs a self-diagnosis cycle, indicated 
+by sequential flashing of the three buttons.
+2. The and lights flash to indicate the appliance 
+is heating up. When the lights stop flashing and remain on 
+steadily, the appliance is ready for operating the rinse.
+3. Attach the filter holder to the appliance (fig. 9).
+4. Place a container with a minimum capacity of 500 ml 
+under the boiler outlet (A5) (fig. 4) and press the 
+button. Repeat this operation 5 times.
+5. Empty the container and put it under the hot water/steam 
+spout (A12) (fig. 4).
+6. Turn the hot water/steam dial to the position (fig. 
+5) and deliver to empty the water tank (A3), then turn the 
+knob to the ○ position.
+9. PROGRAMMING THE SETTINGS MENU
+To access the menu, make sure the appliance is ready for use, 
+then press and hold the button for 10 seconds until the 
+three buttons flash in sequence: 
+The appliance is now in programming mode. 
+Set the coffee maker as you wish, then exit the settings menu by 
+waiting for 15 seconds.
+Please note:
+If no selections are made for 15 seconds, the appliance automat_x0002_ically exits programming and is ready for use again.
+9.1 Setting coffee temperature
+To modify the temperature of the water used to make the coffee, 
+proceed as follows:
+1. Access the settings menu,
+2. Press the button to enter the coffee temperature 
+selection mode. The lights corresponding to the current 
+selection come on:
+low
+medium 
+high
+3. The lights start flashing in sequence,
+4. Press the button corresponding to the required 
+temperature:
+ low medium high
+5. The button flashes to indicate that the selection has 
+been saved. 
+The appliance exits the menu and is ready for use. 
+9.2 Setting water hardness
+The light (B7) indicating that the coffee maker needs descaling 
+comes on after a period of operation established according to 
+water hardness. 
+The appliance can also be programmed according to the hard_x0002_ness of the mains water in the various regions so that descaling 
+needs to be performed more or less frequently. 
+Proceed as follows:
+1. Access the settings menu,
+2. Press the button to enter the water hardness selec_x0002_tion mode. The lights corresponding to the current selec_x0002_tion come on:
+soft
+medium 
+hard
+3. The lights start flashing in sequence,
+4. Press the button corresponding to the water hardness in 
+your area:
+soft water medium 
+water
+hard water
+&lt;10°dH 10°dH - 20°dH &gt;20°dH
+&lt;18°fH 18°fH - 36°fH &gt;36°fH
+&lt;180mg/l CaCo3 180-360mg/l CaCo3 &gt;360mg/l CaCo3
+- The button flashes to indicate that the selection has 
+been saved. 
+The appliance exits the menu and is ready for use.
+9.3 Adjusting auto-off (stand-by)
+To save energy, an auto-off function turns the appliance off 
+when not used for a long period. To turn it back on again, press 
+any button on the control panel.
+1. Access the settings menu,
+2. Press the button to enter the auto-off time selection 
+mode. The lights corresponding to the current selection 
+come on:
+9 min
+30 min
+3 hours
+3. The lights start flashing in sequence,
+4. Press the button corresponding to the required time:
+5. The button flashes to indicate that the selection has 
+been saved. 
+The appliance exits the menu and is ready for use. 
+9.4 Default values (reset)
+This resets all menu settings and programmed quantities back 
+to the default values. 
+To reset the default values, proceed as follows:
+1. Position the steam spout over the drip tray,
+2. Access the settings menu,
+3. Turn the steam dial to the position,
+4. Press the button. The three lights flash simulta_x0002_neously to confirm that the original settings have been 
+restored.
+5. The and lights flash to indicate that the 
+steam dial must be closed again (○symbol).
+When the steam dial has been closed, the appliance is ready for 
+use</t>
+  </si>
+  <si>
+    <t>10. HOW TO MAKE ESPRESSO COFFEE
+10.1 Tips for a hotter coffee
+For hotter espresso coffee, you should:
+• You are recommended to warm the cups before making 
+coffee by rinsing them with a little hot water.
+• Attach the filter holder to the appliance with the filter in 
+place but without adding coffee. Using the same cup 
+as will later be used to make the coffee, press the 1 cup 
+button and deliver hot water into the cup to heat it.
+• Raise the coffee temperature in the settings menu.
+• Rest the cups you will be using on the cup warmer (A4) 
+which becomes hot during operation.
+10.2 How to prepare espresso coffee using pre_x0002_ground coffee
+1. Place the ground coffee filter (C2 or C3) in the filter holder 
+(fig. 6). To make one coffee, use the filter with the 
+symbol on the bottom, to make two coffees, use the filter 
+with the symbol on the bottom.
+2. To make just one coffee, place one level measure of pre_x0002_ground coffee (about 7 g) in the filter (fig. 7). To make two 
+coffees, place two loosely filled measures (about 7+7 g) of 
+pre-ground coffee in the filter. Fill the filter a little at a time 
+to prevent the pre-ground coffee from overflowing.
+ Important: 
+For correct operation, before filling with pre-ground coffee, 
+make sure there are no coffee residues left in the filter from the 
+last time you made coffee.
+3. Distribute the pre-ground coffee evenly and press lightly 
+with the presser (fig. 8).
+Correct pressing of the pre-ground coffee is essential to 
+obtain a good espresso. If you press too firmly, the coffee 
+will be delivered slowly and will be strong. If you press 
+too lightly, the coffee will be delivered quickly and will be 
+weak.
+4. Remove any excess coffee from the rim of the filter holder 
+and attach the filter holder to the appliance. To attach cor_x0002_rectly, align the filter holder handle with the INSERT sym_x0002_bol (fig. 9), attach the filter holder and rotate the handle 
+towards the right until aligned with the CLOSE symbol.
+5. Place the cup or cups under the filter holder spouts (fig. 
+10). 
+6. Make sure the lights corresponding to the coffee buttons 
+are on, then press the or coffee button. The 
+appliance proceeds to make the coffee and delivery is in_x0002_terrupted automatically.
+7. To remove the filter holder, turn the handle from right to 
+left.
+ Danger of burns! 
+To avoid splashes, never remove the filter holder while the 
+appliance is delivering coffee. Always wait for a few seconds 
+after delivery.
+10.3 How to make espresso coffee using pods
+ Please note: 
+Use pods conforming to the ESE standard, indicated on the pack 
+by the following symbol. 
+The ESE standard is a system accepted by lead_x0002_ing pod producers and enables espresso coffee 
+to be prepared simply and cleanly.
+1. Place the filter for coffee pods (with the symbol on 
+the bottom) in the filter holder.
+2. Insert the pod, centring it as far as possible on the filter 
+(fig. 11). Always follow the instructions on the pod pack to 
+position the pod on the filter correctly. 
+Proceed as described in points 4 to 6 in the previous section.
+ Please note: 
+• While the appliance is making coffee, delivery can be in_x0002_terrupted at any moment by pressing the coffee button 
+pressed previously.
+• At the end of delivery (within 3 seconds), to increase the 
+amount of coffee in the cup, press and hold the coffee button pressed previously. Delivery is automatically interrupt_x0002_ed after a few seconds.
+• To remove the filter holder, turn the handle from right to 
+left.
+ Danger of burns! 
+To avoid splashes, never remove the filter holder while the 
+appliance is delivering coffee. Always wait for a few seconds 
+after delivery.
+10.4 Programming the quantities of coffee in 
+the cup
+The appliance is set by default to automatically deliver standard 
+quantities. To change these quantities, proceed as follows:
+1. Place one or two cups under the filter holder spouts.
+2. Press and hold the button you want to programme (
+or ). The coffee maker starts delivering coffee and 
+the other coffee button flashes to indicate that the appli_x0002_ance is in programming mode.
+3. Once the required quantity of coffee has been delivered 
+into the cup, release the button. Delivery stops and the 
+light flashes to indicate that the quantity has been saved 
+correctly.
+4. When the two coffee lights come on steadily, the appliance 
+is ready for use.
+11. HOW TO MAKE CAPPUCCINO
+1. Prepare the espresso coffees as described in the previous 
+sections, using sufficiently large cups. To use tall glasses, 
+remove the drip tray and stand the glasses on the glasses 
+tray (A10),
+2. Press the button (fig. 12). The light flashes,
+3. In the meantime, fill a recipient with about 100 grams of 
+milk for each cappuccino to be prepared. For a denser more 
+even froth, you must use skimmed or partially skimmed 
+milk at refrigerator temperature (about 5°C). In choosing 
+the size of the recipient, bear in mind that the milk doubles 
+or triples in volume (fig. 13).
+4. Make sure the cappuccino maker selection ring (A14) is in 
+the "CAPPUCCINO" position (fig. 14),
+5. Wait for the light corresponding to the button to 
+come on steadily, indicating that the boiler has reached 
+the ideal temperature to produce steam.
+6. Position an empty container under the cappuccino maker 
+and open the dial for a few seconds to eliminate any air left 
+in the circuit. Close the dial again.
+7. Place the recipient containing the milk under the cappucci_x0002_no maker.
+8. Immerse the cappuccino maker in the milk container. 
+Never immerse the black ring(fig. 15). Turn the dial to the 
+position. Steam is delivered from the cappuccino 
+maker, giving the milk a creamy frothy appearance (fig. 
+16). To obtain a creamier froth, immerse the cappuccino 
+maker in the milk and rotate the container with slow up_x0002_ward movements.
+9. When the required temperature (the ideal is 60°C) and 
+froth density is reached, interrupt steam delivery by turn_x0002_ing the steam dial clockwise.
+10. Pour the frothed milk into the cups containing the espresso 
+coffee prepared previously. The cappuccino is ready. Sweet_x0002_en to taste and if desired, sprinkle the froth with a little 
+cocoa powder.
+Please note:
+• to prepare more than one cappuccino, first make all the 
+coffees then at the end prepare the frothed milk for all the 
+cappuccinos,
+• to exit the steam function, press any button. The 
+and lights flash to indicate that the temperature is 
+too high to make coffee (see section "Cooling the boiler”).
+You should not deliver steam for more than 
+60 seconds.
+12. MAKING HOT MILK
+To make hot milk without froth, proceed as described in the 
+above section, making sure the cappuccino maker selection 
+ring (A14) is positioned upwards in the "HOT MILK" position.</t>
+  </si>
+  <si>
+    <t>13. CLEANING THE CAPPUCCINO MAKER AFTER USE
+Important: 
+For hygiene reasons, the cappuccino maker should always be 
+cleaned after use.
+Proceed as follows:
+1. Turn the steam dial to deliver a little steam for a few sec_x0002_onds (points 2, 5 and 6 of the previous section). This caus_x0002_es the cappuccino maker to discharge any milk left inside. 
+Press the ON/OFF button to turn the appliance off.
+2. Wait a few minutes for the cappuccino maker to cool down. 
+With one hand, hold the cappuccino maker tube firmly, 
+with the other, release the cappuccino maker by turning it 
+clockwise, then pull off downwards (fig. 17).
+3. Remove the rubber steam connection nozzle from the 
+spout by pulling it downwards (fig. 18).
+4. Push the ring upwards and make sure the two holes shown 
+by the arrows in fig. 19 are not blocked. If necessary, clean 
+with a pin,
+12
+5. Replace the nozzle, move the ring downwards and put the 
+cappuccino maker back on the connection nozzle, turning 
+it and pushing it upwards until it is attached.
+14. COOLING THE BOILER
+To make coffee again immediately after frothing milk, the boil_x0002_er must first be cooled or the coffee will be burnt. Proceed as 
+follows:
+• place a container under the cappuccino maker,
+• open the steam dial to deliver hot water and cool the 
+boiler,
+• hot water delivery is interrupted automatically when the 
+boiler is cool. When the pump stops operating and no more 
+water is delivered, close the steam dial.
+The coffee maker is now ready for use.
+15. HOT WATER
+1. Press the ON/OFF button (fig. 3) to turn the appliance on. 
+Wait for the coffee lights to come on steadily.
+2. Place a recipient under the cappuccino maker.
+3. Turn the dial to the position. Hot water is delivered 
+from the cappuccino maker.
+4. To stop hot water delivery, close the dial and press any 
+button.
+You should not deliver hot water for more 
+than 60 seconds.
+16. CLEANING
+16.1 Cleaning the machine
+The following parts of the machine must be cleaned regularly:
+- drip tray (A9) 
+- the coffee filters (C2, C3 and C4),
+- the boiler outlet (A5),
+- water tank (A3),
+- the cappuccino maker (A15) as described in section "”13. 
+Cleaning the cappuccino maker after use”,
+ Important! 
+• Do not use solvents, abrasive detergents or alcohol to clean 
+the coffee machine. 
+• Do not use metal objects to remove encrustations or coffee 
+deposits as they could scratch metal or plastic surfaces.
+• If the appliance is not used for more than one week, before 
+using it again, we strongly recommend you perform a rinse 
+cycle as described in section ”8. first use”.
+Danger! 
+• While cleaning, never immerse the coffee maker in water. 
+It is an electrical appliance.
+• Before cleaning the outside of the appliance, turn it off, 
+unplug from the mains socket and allow to cool.
+16.2 Cleaning the drip tray 
+ Important! 
+The drip tray is fitted with a level indicator (red) showing the 
+level of water it contains (fig. 20). Before the indicator protrudes 
+from the cup tray, the drip tray must be emptied and cleaned 
+otherwise the water may overflow the edge and damage the 
+appliance, the surface it rests on or the surrounding area.
+1. Remove the drip tray (fig. 21).
+2. Remove the cup tray (A7), empty the water and clean the 
+drip tray with a cloth, then reassemble the drip tray. Ex_x0002_tract the mugs or glasses tray (A10), clean with water, dry 
+and put back in the machine,
+3. Put the drip tray back in place.
+16.3 Cleaning the coffee filters
+Clean the coffee filters regularly:
+1. Rinse the filters under running water (fig. 22),
+2. Make sure the holes are not blocked. If necessary, clean 
+with a pin (figs. 22 and 23).
+16.4 Cleaning the boiler outlet
+After every 200 coffees, rinse the boiler outlet by delivering 
+about 0.5 l of water from the boiler outlet (press the coffee but_x0002_ton without using ground coffee).
+16.5 Other cleaning operations
+1. Do not use solvents or abrasive detergents to clean the cof_x0002_fee maker. Use a soft damp cloth only.
+2. Clean the filter holder cup.
+16.6 Cleaning the water tank
+1. Clean the water tank regularly (about once a month) and 
+whenever you replace the water softener filter (C6, *if pro_x0002_vided) with a damp cloth and a little mild washing up liquid,
+2. Remove the filter (*if present) and rinse with running 
+water,
+3. Put the filter (*if provided) back in the appliance, fill the 
+tank with fresh water and replace the tank,
+4. (Models with water softener filter only) Deliver about 100 
+ml of water.
+Danger!
+While cleaning, never immerse the coffee maker in water. It is 
+an electrical appliance.
+13
+16.7 Descale
+Descale the appliance when the orange light on the but_x0002_ton comes on.
+Important! 
+• Before use, read the instructions and the labelling on the 
+descaler pack.
+• You should use De'Longhi descaler only. Using unsuitable 
+descaler and/or performing descaling incorrectly may re_x0002_sult in faults not covered by the manufacturer's guarantee.
+Proceed as follows:
+1. (IF PRESENT, REMOVE THE WATER SOFTENER FILTER). Fill 
+the tank with the descaler solution, obtained by diluting 
+the descaler provided with water (fill the water tank up to 
+the MAX level).
+2. Press the ON/OFF button.
+3. Make sure the filter holder is not attached and position a 
+recipient under the hot water spout and boiler outlet (A5) 
+(fig. 24).
+4. Wait for the and lights to come on steadily, 
+indicating that the appliance is ready for use.
+5. Press and hold the button for 10 seconds until the 
+three buttons flash in sequence.
+6. Turn the steam dial to the position.
+7. Press the button to start descaling.
+8. The descale programme starts and the descaler liquid 
+comes out of the water spout. The descale programme 
+removes limescale deposits from inside the appliance by 
+automatically performing a series of rinses and pausesuntil 
+the tank is completely empty.
+ Please note: 
+During descaling, to clean the boiler outlet, close the steam dial 
+from time to time to deliver small quantities of descaler from 
+the boiler outlet.
+9. The appliance stops operation and the orange 
+light continues to flash, indicating that descaling is still 
+underway.
+10. The appliance is now ready for rinsing through with clean 
+water. Extract the water tank, empty, rinse under running 
+water, fill with fresh water up to the MAX level and put 
+back in the appliance (If used, insert the water softener 
+filter).
+11. Empty the container used to collect the descaler solution 
+and replace it empty under the hot water spout.
+12. Make sure the steam dial is in the position, then 
+press the button to start rinsing.
+ Please note: 
+During rinsing, to clean the boiler outlet, close the steam dial 
+from time to time to deliver small quantities of water from the 
+boiler outlet.
+13. When the water tank is empty, the orange light goes out 
+and descaling is complete.
+14. Make sure the steam dial is in the closed position (○
+symbol).
+The appliance is ready for use.
+ Please note! 
+• If the descaling cycle is not completed correctly (e.g. no 
+electricity) we recommend repeating the cycle,
+• If the water tank has not been filled to the MAX level, at the 
+end of descaling, the appliance requests a further rinse to 
+guarantee that the descaler solution has been completely 
+eliminated from the machine's internal circuits.
+Repair of damage to the coffee maker caused by limescale is not 
+covered by the guarantee unless descaling is performed regular_x0002_ly as described above.</t>
   </si>
 </sst>
 </file>
@@ -991,20 +1626,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1015,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1026,7 +1661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -1034,7 +1669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -1042,47 +1677,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -1090,571 +1725,809 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
         <v>45</v>
       </c>
-      <c r="C39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
         <v>51</v>
       </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
         <v>53</v>
       </c>
-      <c r="C45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
         <v>59</v>
       </c>
-      <c r="C50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
         <v>73</v>
       </c>
-      <c r="C63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
+    <row r="73" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
         <v>86</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
+      <c r="C81" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
         <v>94</v>
       </c>
-      <c r="C81" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
+    <row r="86" spans="1:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
         <v>100</v>
       </c>
-      <c r="B86" t="s">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
         <v>101</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
         <v>112</v>
       </c>
-      <c r="C96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
+        <v>120</v>
+      </c>
+      <c r="C106" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B109" t="s">
         <v>123</v>
       </c>
-      <c r="C106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B110" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B108" t="s">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B111" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
+    <row r="112" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B112" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B113" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="112" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B114" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B115" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B116" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B117" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B118" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
+    <row r="119" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>135</v>
+      </c>
+      <c r="B119" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B118" t="s">
-        <v>136</v>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B121" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B122" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B123" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B124" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B125" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B126" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B127" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B128" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B129" t="s">
+        <v>147</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B130" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B131" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B132" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B133" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B134" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B135" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B136" t="s">
+        <v>154</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B137" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B138" t="s">
+        <v>156</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B139" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B140" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B141" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B142" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B143" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B144" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B145" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B146" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B147" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B148" t="s">
+        <v>166</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B149" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B150" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B151" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B152" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B153" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B154" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B155" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B156" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B157" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B158" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B160" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B161" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B162" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
